--- a/branches/hide-pages-temporarily/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/hide-pages-temporarily/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:49:30+00:00</t>
+    <t>2023-02-16T14:51:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hide-pages-temporarily/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/hide-pages-temporarily/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:51:09+00:00</t>
+    <t>2023-02-16T14:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
